--- a/dashboard/SALES_Dashboard_FY26.xlsx
+++ b/dashboard/SALES_Dashboard_FY26.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Account Owners" sheetId="7" r:id="rId7"/>
     <sheet name="Weightages" sheetId="8" r:id="rId8"/>
     <sheet name="Instructions" sheetId="9" r:id="rId9"/>
+    <sheet name="RAG Metrics" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -407,13 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -502,17 +498,75 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Key</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Label</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Value</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>capabilityAI</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Capability Development in AI</v>
+      </c>
+      <c r="C2" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>accountStrategy</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Account Coverage Strategy</v>
+      </c>
+      <c r="C3" t="str">
+        <v>red</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>archDomain</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Architecture &amp; Domain Knowledge</v>
+      </c>
+      <c r="C4" t="str">
+        <v>red</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -693,13 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -880,13 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -979,13 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -1078,13 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -1177,12 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -1260,15 +1290,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -1311,7 +1336,7 @@
         <v>ARR</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1322,7 +1347,7 @@
         <v>Pipeline Coverage</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1333,7 +1358,7 @@
         <v>On-time Billing</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1391,12 +1416,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>capabilityAI</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Capability Development in AI</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>accountStrategy</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Account Strategy</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>archDomain</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Architecture &amp; Domain Knowledge</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1405,11 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="100.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">

--- a/dashboard/SALES_Dashboard_FY26.xlsx
+++ b/dashboard/SALES_Dashboard_FY26.xlsx
@@ -540,7 +540,7 @@
         <v>Account Coverage Strategy</v>
       </c>
       <c r="C3" t="str">
-        <v>red</v>
+        <v>amber</v>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         <v>Architecture &amp; Domain Knowledge</v>
       </c>
       <c r="C4" t="str">
-        <v>red</v>
+        <v>green</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/SALES_Dashboard_FY26.xlsx
+++ b/dashboard/SALES_Dashboard_FY26.xlsx
@@ -529,7 +529,7 @@
         <v>Capability Development in AI</v>
       </c>
       <c r="C2" t="str">
-        <v>red</v>
+        <v>amber</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
         <v>Account Coverage Strategy</v>
       </c>
       <c r="C3" t="str">
-        <v>amber</v>
+        <v>green</v>
       </c>
     </row>
     <row r="4">

--- a/dashboard/SALES_Dashboard_FY26.xlsx
+++ b/dashboard/SALES_Dashboard_FY26.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -443,16 +443,22 @@
       <c r="C3" t="str">
         <v>Achievement Till Date</v>
       </c>
+      <c r="D3" t="str">
+        <v>Baseline (Q1)</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>NPS Score</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>-12</v>
+      </c>
+      <c r="D4">
+        <v>-30</v>
       </c>
     </row>
     <row r="5">
@@ -489,11 +495,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -504,11 +507,6 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -529,7 +527,7 @@
         <v>Capability Development in AI</v>
       </c>
       <c r="C2" t="str">
-        <v>amber</v>
+        <v>red</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +538,7 @@
         <v>Account Coverage Strategy</v>
       </c>
       <c r="C3" t="str">
-        <v>green</v>
+        <v>red</v>
       </c>
     </row>
     <row r="4">
@@ -551,7 +549,7 @@
         <v>Architecture &amp; Domain Knowledge</v>
       </c>
       <c r="C4" t="str">
-        <v>green</v>
+        <v>red</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/SALES_Dashboard_FY26.xlsx
+++ b/dashboard/SALES_Dashboard_FY26.xlsx
@@ -1,7 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/dashboard/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_A634BA23B7C8C58FABC867B1D298CF0841608425" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4202535-827A-4D60-AC6F-3626FE9D4140}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
     <sheet name="Monthly Billing" sheetId="2" r:id="rId2"/>
@@ -14,37 +24,333 @@
     <sheet name="Instructions" sheetId="9" r:id="rId9"/>
     <sheet name="RAG Metrics" sheetId="10" r:id="rId10"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
+  <si>
+    <t>Sales Dashboard - Annual KPIs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Target FY26</t>
+  </si>
+  <si>
+    <t>Achievement Till Date</t>
+  </si>
+  <si>
+    <t>Baseline (Q1)</t>
+  </si>
+  <si>
+    <t>NPS Score</t>
+  </si>
+  <si>
+    <t>Sales Capacity Achievement</t>
+  </si>
+  <si>
+    <t>Open Pipeline as of Date (₹ Cr)</t>
+  </si>
+  <si>
+    <t>On-Time Billing (INR Cr)</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Target INR Cr</t>
+  </si>
+  <si>
+    <t>Achievement INR Cr</t>
+  </si>
+  <si>
+    <t>Apr'26</t>
+  </si>
+  <si>
+    <t>May'26</t>
+  </si>
+  <si>
+    <t>Jun'26</t>
+  </si>
+  <si>
+    <t>Jul'26</t>
+  </si>
+  <si>
+    <t>Aug'26</t>
+  </si>
+  <si>
+    <t>Sep'26</t>
+  </si>
+  <si>
+    <t>Oct'26</t>
+  </si>
+  <si>
+    <t>Nov'26</t>
+  </si>
+  <si>
+    <t>Dec'26</t>
+  </si>
+  <si>
+    <t>Jan'27</t>
+  </si>
+  <si>
+    <t>Feb'27</t>
+  </si>
+  <si>
+    <t>Mar'27</t>
+  </si>
+  <si>
+    <t>On-Time Collection (INR Cr)</t>
+  </si>
+  <si>
+    <t>QBRs Held</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Achievement</t>
+  </si>
+  <si>
+    <t>Q1 FY26</t>
+  </si>
+  <si>
+    <t>Q2 FY26</t>
+  </si>
+  <si>
+    <t>Q3 FY26</t>
+  </si>
+  <si>
+    <t>Q4 FY26</t>
+  </si>
+  <si>
+    <t>New Logos</t>
+  </si>
+  <si>
+    <t>Quarterly ARR (INR Cr)</t>
+  </si>
+  <si>
+    <t>ARR Target</t>
+  </si>
+  <si>
+    <t>ARR Achievement</t>
+  </si>
+  <si>
+    <t>Account Owner Performance (YTD)</t>
+  </si>
+  <si>
+    <t>Account Owner</t>
+  </si>
+  <si>
+    <t>ARR Achievement (Cr)</t>
+  </si>
+  <si>
+    <t>Sales Rep A</t>
+  </si>
+  <si>
+    <t>Sales Rep B</t>
+  </si>
+  <si>
+    <t>Sales Rep C</t>
+  </si>
+  <si>
+    <t>Sales Rep D</t>
+  </si>
+  <si>
+    <t>Sales Rep E</t>
+  </si>
+  <si>
+    <t>OKR Weightages (Must total 100)</t>
+  </si>
+  <si>
+    <t>Metric Key</t>
+  </si>
+  <si>
+    <t>Metric Label</t>
+  </si>
+  <si>
+    <t>Weight (%)</t>
+  </si>
+  <si>
+    <t>arr</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>pipelineCoverage</t>
+  </si>
+  <si>
+    <t>Pipeline Coverage</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>On-time Billing</t>
+  </si>
+  <si>
+    <t>salesCapacity</t>
+  </si>
+  <si>
+    <t>newLogos</t>
+  </si>
+  <si>
+    <t># of New Logos</t>
+  </si>
+  <si>
+    <t>nps</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>On-time Collection</t>
+  </si>
+  <si>
+    <t>qbr</t>
+  </si>
+  <si>
+    <t>capabilityAI</t>
+  </si>
+  <si>
+    <t>Capability Development in AI</t>
+  </si>
+  <si>
+    <t>accountStrategy</t>
+  </si>
+  <si>
+    <t>Account Strategy</t>
+  </si>
+  <si>
+    <t>archDomain</t>
+  </si>
+  <si>
+    <t>Architecture &amp; Domain Knowledge</t>
+  </si>
+  <si>
+    <t>SALES Dashboard - Input File Instructions</t>
+  </si>
+  <si>
+    <t>Generated for: SALES FY26</t>
+  </si>
+  <si>
+    <t>HOW TO UPDATE THE DASHBOARD:</t>
+  </si>
+  <si>
+    <t>1. Edit the data in any of the sheets listed below</t>
+  </si>
+  <si>
+    <t>2. Save this Excel file</t>
+  </si>
+  <si>
+    <t>3. The dashboard will automatically refresh within a few seconds!</t>
+  </si>
+  <si>
+    <t>IMPORTANT RULES:</t>
+  </si>
+  <si>
+    <t>- Do NOT rename the sheets</t>
+  </si>
+  <si>
+    <t>- Do NOT change the column headers (Row 3 in each sheet)</t>
+  </si>
+  <si>
+    <t>- Keep the same row structure (months, quarters, etc.)</t>
+  </si>
+  <si>
+    <t>- Leave cells EMPTY (not zero) for months with no data yet</t>
+  </si>
+  <si>
+    <t>- The backend server must be running (node server.cjs)</t>
+  </si>
+  <si>
+    <t>- Weightages MUST total 100%</t>
+  </si>
+  <si>
+    <t>SHEET DESCRIPTIONS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Annual KPIs      -&gt; NPS Score, Sales Capacity Achievement, Open Pipeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Monthly Billing   -&gt; On-time billing target vs achievement (Apr-Mar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Monthly Collection-&gt; On-time collection target vs achievement (Apr-Mar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Quarterly QBRs    -&gt; QBRs held per quarter (Q1-Q4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Quarterly New Logos -&gt; New logos acquired per quarter (Q1-Q4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Quarterly ARR     -&gt; Quarterly ARR target vs achievement (Q1-Q4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Account Owners    -&gt; Per-account-owner YTD performance (ARR only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Weightages        -&gt; OKR metric weights (must total 100)</t>
+  </si>
+  <si>
+    <t>GENERATING TEMPLATES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  node generate-template.cjs                  (KAM FY26 with sample data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  node generate-template.cjs Sales FY26       (Sales FY26 with sample data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  node generate-template.cjs KAM FY27         (KAM FY27 with empty achievements)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  node generate-template.cjs Sales FY27       (Sales FY27 with empty achievements)</t>
+  </si>
+  <si>
+    <t>FILE NAMING:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  This file: SALES_Dashboard_FY26.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pattern: {FUNCTION}_Dashboard_FY{NN}.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The server auto-discovers files matching this pattern.</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Account Coverage Strategy</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,14 +379,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,65 +720,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Sales Dashboard - Annual KPIs</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Metric</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target FY26</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Achievement Till Date</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Baseline (Q1)</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>NPS Score</v>
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>19</v>
       </c>
       <c r="C4">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="D4">
         <v>-30</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Sales Capacity Achievement</v>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -472,136 +790,140 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Open Pipeline as of Date (₹ Cr)</v>
-      </c>
-      <c r="B7" t="str">
-        <v/>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>120</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError sqref="A1:D3 A5:D7 A4:B4 D4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Key</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Label</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Value</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>capabilityAI</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Capability Development in AI</v>
-      </c>
-      <c r="C2" t="str">
-        <v>red</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>accountStrategy</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Account Coverage Strategy</v>
-      </c>
-      <c r="C3" t="str">
-        <v>red</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>archDomain</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Architecture &amp; Domain Knowledge</v>
-      </c>
-      <c r="C4" t="str">
-        <v>red</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError sqref="A1:C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>On-Time Billing (INR Cr)</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Month</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target INR Cr</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Achievement INR Cr</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Apr'26</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -610,9 +932,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>May'26</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -621,9 +943,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Jun'26</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -632,9 +954,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Jul'26</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -643,9 +965,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Aug'26</v>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -654,9 +976,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Sep'26</v>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -665,9 +987,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Oct'26</v>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -676,9 +998,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Nov'26</v>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -687,9 +1009,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Dec'26</v>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -698,9 +1020,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Jan'27</v>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -709,81 +1031,83 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Feb'27</v>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
       </c>
       <c r="B14">
         <v>20</v>
       </c>
-      <c r="C14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Mar'27</v>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
       <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15" t="str">
-        <v/>
+      <c r="C15" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
+    <ignoredError sqref="A1:C15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>On-Time Collection (INR Cr)</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Month</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target INR Cr</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Achievement INR Cr</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Apr'26</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -792,9 +1116,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>May'26</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -803,9 +1127,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Jun'26</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -814,9 +1138,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Jul'26</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -825,9 +1149,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Aug'26</v>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -836,9 +1160,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Sep'26</v>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -847,9 +1171,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Oct'26</v>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
       </c>
       <c r="B10">
         <v>25</v>
@@ -858,9 +1182,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Nov'26</v>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="B11">
         <v>25</v>
@@ -869,9 +1193,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Dec'26</v>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -880,9 +1204,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Jan'27</v>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -891,81 +1215,83 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Feb'27</v>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
       </c>
       <c r="B14">
         <v>25</v>
       </c>
-      <c r="C14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Mar'27</v>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
       <c r="B15">
         <v>25</v>
       </c>
-      <c r="C15" t="str">
-        <v/>
+      <c r="C15" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
+    <ignoredError sqref="A1:C15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>QBRs Held</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Quarter</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Achievement</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Q1 FY26</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -974,9 +1300,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Q2 FY26</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -985,9 +1311,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Q3 FY26</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -996,9 +1322,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Q4 FY26</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1011,55 +1337,57 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>New Logos</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Quarter</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Achievement</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Q1 FY26</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1068,9 +1396,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Q2 FY26</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1079,9 +1407,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Q3 FY26</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1090,9 +1418,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Q4 FY26</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1105,55 +1433,57 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Quarterly ARR (INR Cr)</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Quarter</v>
-      </c>
-      <c r="B3" t="str">
-        <v>ARR Target</v>
-      </c>
-      <c r="C3" t="str">
-        <v>ARR Achievement</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Q1 FY26</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1162,9 +1492,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Q2 FY26</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1173,9 +1503,9 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Q3 FY26</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1184,9 +1514,9 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Q4 FY26</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1199,78 +1529,80 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Account Owner Performance (YTD)</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Account Owner</v>
-      </c>
-      <c r="B3" t="str">
-        <v>ARR Achievement (Cr)</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Sales Rep A</v>
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>41</v>
       </c>
       <c r="B4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Sales Rep B</v>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
       </c>
       <c r="B5">
         <v>3.8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Sales Rep C</v>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1.2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Sales Rep D</v>
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Sales Rep E</v>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -1280,375 +1612,380 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError sqref="A1:B8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>OKR Weightages (Must total 100)</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Metric Key</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Metric Label</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Weight (%)</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>arr</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ARR</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>pipelineCoverage</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pipeline Coverage</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>billing</v>
-      </c>
-      <c r="B6" t="str">
-        <v>On-time Billing</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>salesCapacity</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Sales Capacity Achievement</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>newLogos</v>
-      </c>
-      <c r="B8" t="str">
-        <v># of New Logos</v>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>nps</v>
-      </c>
-      <c r="B9" t="str">
-        <v>NPS Score</v>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>collection</v>
-      </c>
-      <c r="B10" t="str">
-        <v>On-time Collection</v>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>qbr</v>
-      </c>
-      <c r="B11" t="str">
-        <v>QBRs Held</v>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>capabilityAI</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Capability Development in AI</v>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>accountStrategy</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Account Strategy</v>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>archDomain</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Architecture &amp; Domain Knowledge</v>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
+    <ignoredError sqref="A1:C14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>SALES Dashboard - Input File Instructions</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Generated for: SALES FY26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>HOW TO UPDATE THE DASHBOARD:</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>1. Edit the data in any of the sheets listed below</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2. Save this Excel file</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>3. The dashboard will automatically refresh within a few seconds!</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>IMPORTANT RULES:</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>- Do NOT rename the sheets</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>- Do NOT change the column headers (Row 3 in each sheet)</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>- Keep the same row structure (months, quarters, etc.)</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>- Leave cells EMPTY (not zero) for months with no data yet</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>- The backend server must be running (node server.cjs)</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>- Weightages MUST total 100%</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>SHEET DESCRIPTIONS:</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v xml:space="preserve">  Annual KPIs      -&gt; NPS Score, Sales Capacity Achievement, Open Pipeline</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v xml:space="preserve">  Monthly Billing   -&gt; On-time billing target vs achievement (Apr-Mar)</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v xml:space="preserve">  Monthly Collection-&gt; On-time collection target vs achievement (Apr-Mar)</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v xml:space="preserve">  Quarterly QBRs    -&gt; QBRs held per quarter (Q1-Q4)</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v xml:space="preserve">  Quarterly New Logos -&gt; New logos acquired per quarter (Q1-Q4)</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v xml:space="preserve">  Quarterly ARR     -&gt; Quarterly ARR target vs achievement (Q1-Q4)</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v xml:space="preserve">  Account Owners    -&gt; Per-account-owner YTD performance (ARR only)</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v xml:space="preserve">  Weightages        -&gt; OKR metric weights (must total 100)</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>GENERATING TEMPLATES:</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v xml:space="preserve">  node generate-template.cjs                  (KAM FY26 with sample data)</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v xml:space="preserve">  node generate-template.cjs Sales FY26       (Sales FY26 with sample data)</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v xml:space="preserve">  node generate-template.cjs KAM FY27         (KAM FY27 with empty achievements)</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v xml:space="preserve">  node generate-template.cjs Sales FY27       (Sales FY27 with empty achievements)</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>FILE NAMING:</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v xml:space="preserve">  This file: SALES_Dashboard_FY26.xlsx</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v xml:space="preserve">  Pattern: {FUNCTION}_Dashboard_FY{NN}.xlsx</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v xml:space="preserve">  The server auto-discovers files matching this pattern.</v>
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A37"/>
+    <ignoredError sqref="A1:A37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/dashboard/SALES_Dashboard_FY26.xlsx
+++ b/dashboard/SALES_Dashboard_FY26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A634BA23B7C8C58FABC867B1D298CF0841608425" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4202535-827A-4D60-AC6F-3626FE9D4140}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_445EB8FDBF15FE7F1A7062DCA9467FBAED9AC4E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8991902D-F9FC-48A5-909D-C1BCBB7BC891}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
   <si>
     <t>Sales Dashboard - Annual KPIs</t>
   </si>
@@ -340,10 +340,13 @@
     <t>Value</t>
   </si>
   <si>
+    <t>amber</t>
+  </si>
+  <si>
+    <t>Account Coverage Strategy</t>
+  </si>
+  <si>
     <t>red</t>
-  </si>
-  <si>
-    <t>Account Coverage Strategy</t>
   </si>
 </sst>
 </file>
@@ -724,10 +727,17 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -815,7 +825,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D3 A5:D7 A4:B4 D4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -827,6 +837,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -858,7 +873,7 @@
         <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -869,7 +884,7 @@
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1068,7 +1085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1252,7 +1271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1297,7 +1318,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1308,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1319,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1330,7 +1351,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1360,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A7:B7 A4:B4 A5:B5 A6:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1348,7 +1369,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1393,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1404,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1415,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -1435,7 +1458,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A7:B7 A4:B4 A5:B5 A6:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1444,7 +1467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1540,9 +1565,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/dashboard/SALES_Dashboard_FY26.xlsx
+++ b/dashboard/SALES_Dashboard_FY26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_445EB8FDBF15FE7F1A7062DCA9467FBAED9AC4E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8991902D-F9FC-48A5-909D-C1BCBB7BC891}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_445EB8FDBF15FE7F1A7062DCA9467FBAED9AC4E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55598D80-D71D-4F9C-87CC-B47D22A39255}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
@@ -726,11 +726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -739,7 +739,7 @@
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -775,7 +775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -789,7 +789,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -836,14 +836,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -854,7 +854,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -865,7 +865,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -876,7 +876,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -903,9 +903,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -938,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -949,7 +949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -960,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -971,7 +971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -982,7 +982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -993,7 +993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1089,9 +1089,9 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1275,9 +1275,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1373,9 +1373,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1471,9 +1471,9 @@
       <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1569,12 +1569,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1653,11 +1653,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1679,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1690,7 +1695,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1698,10 +1703,10 @@
         <v>51</v>
       </c>
       <c r="C4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1709,10 +1714,10 @@
         <v>53</v>
       </c>
       <c r="C5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1723,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1731,10 +1736,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1745,7 +1750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1753,10 +1758,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1767,7 +1772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1800,7 +1805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1814,7 +1819,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A6:C6 A4:B4 A10:C14 A9:B9 A5:B5 A8:C8 A7:B7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1825,189 +1830,189 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>99</v>
       </c>
